--- a/processing/test/20230613-a1r-nc-session3-f_transcript.xlsx
+++ b/processing/test/20230613-a1r-nc-session3-f_transcript.xlsx
@@ -6,8 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20230613-a1r-nc-session3-f_tran" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="proposal" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -62,7 +61,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -73,6 +72,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,276 +361,291 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="12.6328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12.5" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.5" customWidth="1" min="2" max="2"/>
+    <col width="13.5" customWidth="1" min="3" max="3"/>
+    <col width="257.5" customWidth="1" min="4" max="4"/>
+    <col width="16.5" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>speaker</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Speaker</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Has Arguments</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>All Arguments Summarized</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Order</t>
-        </is>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="n">
         <v>10183</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>"2:07"</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>Hi. I'm Sheila from Champlin Minnesota.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>"2:12"</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>Hi, Janice Livingston Rivard.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>"2:12"</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I'm from Waynesville Missouri, glad to see everybody.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="n">
         <v>48595</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>"2:27"</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>Danielle and Braselton Georgia.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>"10:30"</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Now I personally have no problems with registering online to vote or automatic voter registration, allowing day of registration with an ID. I'm a little bit more empty if he on</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="n">
         <v>9944</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>"10:47"</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>I live in Iowa, and we are allowed to register day of. I've seen it helped people that show up to vote and her like, oh, crap. I'm not registered, and it really does make a difference.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>"11:00"</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>I think they should have to register before voting day. I also think that they ought to have a valid ID card I'm 66 and I've had an ID card. Since I started driving at 16, I don't agree that people ought to be able to just walk in there and say my name is so-and-so and I need to vote. I'm really not so okay with the automatic registration to vote because around here and Mike</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>"11:00"</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>county is somebody dies. They still be</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="A10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>"11:00"</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Registered to vote. So of course, if they had to have an ID they couldn't go in there, do it. But if they didn't have to, they could go in there and say I'm so-and-so or get their voting card and vote for them.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person is registered to vote.
 2. If they had to have an ID, they couldn't vote.
-3. But if they didn't have to show an ID, they could vote.
-4. They could go in and say they are a certain person or use their voting card to vote for them.</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+3. Without an ID, they could go to the polling place and claim to be the voter or use their voting card to vote for them.</t>
+        </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="n">
         <v>48631</v>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>"11:49"</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>I think automatic voter registration would probably be okay because if someone dies, that would go into the system and they would no longer be able to vote right now. We don't have very easy checks and balances on death. When you go to election day I also think everyone should have proper ID.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Automatic voter registration is probably okay.
 2. If someone dies, this would be recorded in the system and they would no longer be able to vote.
@@ -636,104 +653,106 @@
 4. On election day, everyone should have proper ID.</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="n">
         <v>48631</v>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>"11:49"</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> When voting, whether they allow registration that day or not, you still need proper ID.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Whether same-day registration is allowed or not, voters still need to provide proper identification.</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="n">
         <v>10183</v>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>"12:29"</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>I'm okay with the voting online, but I still think that they should somehow include a photo of the person who was registering</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>12</v>
-      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="A14" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>"12:39"</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>Back to the deaf. Dang, it took like six to eight weeks for me to get my husband's death certificate. So there could still be voter fraud. Even though the deaths are reported because they don't go into the system until the death certificate is issued. So I just don't think that that automatic stuff would work and then there'd be stuff that were automatic people that were automatically done and</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>13</v>
-      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="A15" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>"12:39"</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> sent to prison and still, they might not know, and I just think it'd be too easy to do some voter fraud that way.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The president sent mail-in ballots to everyone on the mailing list.
 2. He thinks it would be easy to commit voter fraud with these mail-in ballots.
@@ -741,625 +760,664 @@
 4. The president would find it too easy to manipulate the election in this way.</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>"13:17"</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>We're starting to get into the implementation but the overall concept. Yes. It's just what are the checks and balances that you put on it, whenever you change, your address, put a change of address request, things like that, those would be things that would automatically trigger, a registration changes death, certificates, things like that. If you're convicted those, all of those things would have to be in the implementation phase but we're just</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>15</v>
-      </c>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>"13:17"</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>talking about the concept itself and I think it is a good concept if properly implemented</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>16</v>
-      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="n">
         <v>48595</v>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>"13:54"</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>You're in Georgia, actually require ID. And I don't think there's been any issues with that registering online. Maybe, I know when I registered to vote it was actually in college.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>17</v>
-      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="n"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="n">
         <v>9944</v>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>"14:11"</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>Specific thing, Iowa, doesn't, we are required to have an ID. If you don't have an ID, you are allowed to bring a different registered voter with, and I do who's willing to vouch for you and sign a piece of paper. I really think that's a reasonable thing. And I don't know if it's specific to Iowa or other states, but I know it's come up before.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. In Iowa, having a specific ID is required to vote.
-2. If a voter doesn't have an ID, they are allowed to bring a registered voter to vouch for them.
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The specific thing being discussed is the requirement of an ID to vote in Iowa.
+2. If a voter does not have an ID, they are allowed to bring a registered voter to vouch for them.
 3. The registered voter who vouches for the voter without an ID must sign a piece of paper.
-4. This practice of allowing a registered voter to vouch for someone without an ID is considered reasonable.
-5. It is unclear if this practice is specific to Iowa or if it is also implemented in other states.
-6. The issue of voters without IDs being vouched for by registered voters has come up before.</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>18</v>
+4. The speaker considers this requirement to be reasonable.
+5. The speaker is unsure if this requirement is specific to Iowa or if it applies to other states as well.
+6. The speaker has mentioned that this issue has come up before.</t>
+        </is>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="n">
         <v>48631</v>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>"14:46"</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>I know in Tennessee, a lot of people complain if they have to have their registration with them and it is required here.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>19</v>
-      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>"16:44"</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t>This is a whole lot to try to tackle so I'm just going to focus on vote by mail. I don't have an issue with vote by mail but it needs to be in by election day or at the drop box that way. It's in, it's submitted, you've got it and you start the process. I just don't have a good feeling, 15 days after the elections things are still trickling in</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The text focuses on the topic of vote by mail.
-2. The author does not express any major issues with vote by mail in general.
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The speaker will focus on vote by mail.
+2. They do not have any issues with vote by mail in general.
 3. However, they believe that vote by mail ballots should be received by election day or at a drop box.
-4. This is to ensure that the votes can be processed and counted in a timely manner.
-5. The author expresses unease about ballots still being received 15 days after the election.</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>20</v>
+4. This is to ensure that the votes can be processed in a timely manner.
+5. The speaker expresses unease about ballots still being received 15 days after the election.</t>
+        </is>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="A22" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>"17:16"</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>I agree with James on that. I think that just like you're supposed to vote on Election Day, the ballot should be in by then. I don't think having cameras by the Dowling button by the voting ballot boxes are going to happen anything because</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>21</v>
-      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F22" s="6" t="n"/>
     </row>
     <row r="23" ht="12.5" customHeight="1">
-      <c r="A23" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="A23" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>"17:16"</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> As I don't have any family members that live here, so I would have to have a friend, do it. And how would they verify that? That's my friend, and that's my actual boat. How do you get? Because I am disabled. How do I get qualified for disabled? If I have to go vote in person sometimes they don't have handicap boating where I'm at?</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>22</v>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F23" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The person has no family members living in the same area to assist them.
+2. They would need a friend to help them with the task.
+3. There is a need for verification of the friend's relationship with the individual.
+4. The individual owns a boat, which is also in question.
+5. The person's disability is mentioned as a factor.
+6. They are qualified for disabled status.
+7. The individual faces issues with handicap accessibility at voting locations.</t>
+        </is>
       </c>
     </row>
     <row r="24" ht="12.5" customHeight="1">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="n">
         <v>48675</v>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>"17:58"</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>I agree with James. I think that everyone knows when election day is and they should be able to get their ballot in the mail box or the Dropbox beforehand.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>23</v>
-      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F24" s="6" t="n"/>
     </row>
     <row r="25" ht="12.5" customHeight="1">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="n">
         <v>48631</v>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>"18:21"</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>24</v>
-      </c>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F25" s="6" t="n"/>
     </row>
     <row r="26" ht="12.5" customHeight="1">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="n">
         <v>48631</v>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>"18:21"</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>I think all ballots should be received by election day and maybe they need to have a postmarked by five days ahead. So that</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F26" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. All ballots should be received by election day.
 2. Ballots should be postmarked by five days ahead of election day.</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="27" ht="12.5" customHeight="1">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="n">
         <v>48631</v>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>"18:21"</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>It ensures that they get there by election day.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>26</v>
-      </c>
+      <c r="E27" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F27" s="6" t="n"/>
     </row>
     <row r="28" ht="12.5" customHeight="1">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>"18:48"</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>So the two that I'm against it is requiring everyone to vote in person and ending early voting that will just turn down voting standards. I think having a paper record is fine but each individual person having a paper record and print it out and drop it, that's just Overkill. Like at the end of the day that just prints out all the votes and then I think we can</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>27</v>
+      <c r="E28" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F28" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The two points mentioned as being against are:
+   a. Requiring everyone to vote in person
+   b. Ending early voting
+2. It is agreed that having a paper record is fine.
+3. The issue is with each individual person having a paper record and printing it out to drop it off.
+4. It is suggested that this process is overkill.
+5. The final statement is about printing out all the votes at the end of the day, implying that this is a more acceptable use of paper records.</t>
+        </is>
       </c>
     </row>
     <row r="29" ht="12.5" customHeight="1">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>"18:48"</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t>lengthening standards and infrastructure at the federal level while still allowing the states to set their own ways of implementing it.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>28</v>
-      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F29" s="6" t="n"/>
     </row>
     <row r="30" ht="12.5" customHeight="1">
-      <c r="A30" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="A30" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>"19:30"</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>That's what I was going to.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>29</v>
-      </c>
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F30" s="6" t="n"/>
     </row>
     <row r="31" ht="12.5" customHeight="1">
-      <c r="A31" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="A31" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
         <is>
           <t>"19:30"</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> bitch I me on about the federal, I think they need to strengthen the infrastructure but I do think like on County elections and state elections and the state or the county needs to have more say in how that's ran, but they all need to really be</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The speaker has a criticism about the federal government.
-2. They believe that the federal infrastructure should be strengthened.
-3. The speaker thinks that county and state elections should have more control over how they are run.
-4. The speaker believes that all levels of government (federal, state, and county) need to have a say in election administration.</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>30</v>
+      <c r="E31" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The speaker has concerns about the federal government.
+2. They believe that the federal government should strengthen infrastructure.
+3. The speaker thinks that county and state elections should be managed mostly by the state or county, not the federal government.
+4. The speaker believes that all levels of government (federal, state, and county) need to work together on election infrastructure.</t>
+        </is>
       </c>
     </row>
     <row r="32" ht="12.5" customHeight="1">
-      <c r="A32" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="A32" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
         <is>
           <t>"19:30"</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t>Upgraded. I don't think they did a very good job when we had our presidential election last year. I think that's what caused a lot of the issues in our country.</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>31</v>
-      </c>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F32" s="6" t="n"/>
     </row>
     <row r="33" ht="12.5" customHeight="1">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="n">
         <v>48631</v>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="C33" s="6" t="inlineStr">
         <is>
           <t>"20:14"</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="D33" s="6" t="inlineStr">
         <is>
           <t>I believe they should keep the early voting. It's been a benefit for me as I'm handicapped and sometimes it's hard. If it's raining in standing in line,</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>32</v>
-      </c>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F33" s="6" t="n"/>
     </row>
     <row r="34" ht="12.5" customHeight="1">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="n">
         <v>48631</v>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>"20:14"</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="D34" s="6" t="inlineStr">
         <is>
           <t>On Election Day.</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>33</v>
-      </c>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="n"/>
     </row>
     <row r="35" ht="12.5" customHeight="1">
-      <c r="A35" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="A35" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
         <is>
           <t>"21:48"</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="D35" s="6" t="inlineStr">
         <is>
           <t>I think we do have need to have more uniform laws on National standards about the in-person the mail in an early voting but how much of that needs to be federally regulated or state regulated? Like I said before I think Federal needs to be for like the presidential elections and stuff and then some needs to be done by the state and the county</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
+      <c r="E35" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F35" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. There is a need for more uniform laws on National standards regarding in-person, mail-in, and early voting.
 2. It is debated how much of this regulation should be federally regulated versus state regulated.
-3. The speaker believes that federal regulation should be implemented for presidential elections.
-4. The speaker also believes that some regulation should be done by the state and county level.</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>34</v>
+3. The speaker believes that federal regulation should be used for presidential elections and some areas.
+4. The speaker also believes that states and counties should have a role in regulating voting processes.</t>
+        </is>
       </c>
     </row>
     <row r="36" ht="12.5" customHeight="1">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>"22:17"</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="D36" s="6" t="inlineStr">
         <is>
           <t>yeah, I think the federal government needs to, and issue guidelines or some recommendations, but as the previous speaker, in one of the</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>35</v>
-      </c>
+      <c r="E36" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F36" s="6" t="n"/>
     </row>
     <row r="37" ht="12.5" customHeight="1">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="C37" s="6" t="inlineStr">
         <is>
           <t>"22:17"</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="D37" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Earlier sessions afterwards. He's the one of our strengths to prevent from having someone taken takeover is our voting is so distributed in the first time. First thing, a dictator or a Trier and tries to do is take control of the voting. It's very hard to take over 50 different voting. Things not to be said, we still need to have some sort of guidelines or standards.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F37" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Our strength lies in having distributed voting to prevent takeovers.
 2. A dictator or a tyrant trying to take control would find it difficult to take over 50 different votings.
 3. Even with distributed voting, there is still a need for some sort of guidelines or standards.</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="38" ht="12.5" customHeight="1">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="n">
         <v>9944</v>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t>"23:00"</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="D38" s="6" t="inlineStr">
         <is>
           <t>I think you bring up a really good point James and I forgot about that but I really appreciate it. He said as long as the state's remaining fairly independent that's kind of a safeguard against it. I'll admit. And I didn't realize that there was such differences between the states. I mean I've only ever lived in Iowa voted here and I kind of thought the process I went through is the process of everybody else's. So it was kind of eye-opening to me to realize. There's not these uniform rules.</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>37</v>
-      </c>
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F38" s="6" t="n"/>
     </row>
     <row r="39" ht="12.5" customHeight="1">
-      <c r="A39" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="A39" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>"23:29"</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="D39" s="6" t="inlineStr">
         <is>
           <t>And it says, about the Boating.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>38</v>
-      </c>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F39" s="6" t="n"/>
     </row>
     <row r="40" ht="12.5" customHeight="1">
-      <c r="A40" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="A40" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>"23:29"</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="D40" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> IDs. I've already given my opinion about that. I do think that we need to have photo IDs. If you want to vote, you can get a registration card out at anybody's wallet or trash or whatever to take it with you. That doesn't prove who you are and they don't really ask you, you know, any questions for you to have to verify. No, like security questions to verify that. That's really you. When you go into both. That's why I think we need to have photo IDs to prove Who We Are.</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F40" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker believes that photo IDs are necessary for voting.
 2. The speaker thinks that a registration card is not sufficient proof of identity, as it can be found in wallets, trash, or other places.
@@ -1367,182 +1425,187 @@
 4. The speaker argues that photo IDs are necessary to prove one's identity.</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>39</v>
-      </c>
     </row>
     <row r="41" ht="12.5" customHeight="1">
-      <c r="A41" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="A41" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
         <is>
           <t>"23:29"</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="D41" s="6" t="inlineStr">
         <is>
           <t>When we vote.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>40</v>
-      </c>
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F41" s="6" t="n"/>
     </row>
     <row r="42" ht="12.5" customHeight="1">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="n">
         <v>48631</v>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>"24:09"</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="D42" s="6" t="inlineStr">
         <is>
           <t>If the air.</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>41</v>
-      </c>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F42" s="6" t="n"/>
     </row>
     <row r="43" ht="12.5" customHeight="1">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="n">
         <v>48631</v>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="C43" s="6" t="inlineStr">
         <is>
           <t>"24:15"</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="D43" s="6" t="inlineStr">
         <is>
           <t>If the airlines can require us to have an official document with our pictures on it, why shouldn't the government require us to have one for voting? I think it would be a must to have a picture ID for voting.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F43" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text suggests that airlines require official documents with passengers' pictures for identification.
 2. The author wonders why governments cannot implement the same requirement for voting.
 3. The author strongly believes that having a picture ID for voting is necessary.</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="44" ht="12.5" customHeight="1">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="n">
         <v>48675</v>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="C44" s="6" t="inlineStr">
         <is>
           <t>"24:33"</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="D44" s="6" t="inlineStr">
         <is>
           <t>And how do you catch someone in voter fraud? If you don't present a photo ID, I don't know how you stop for voter fraud. If you don't have the voter ID in the first place,</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F44" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The argument is about the requirement of photo ID to prevent voter fraud.
 2. The claim is that presenting a photo ID is necessary to catch and prevent voter fraud.
-3. The lack of a voter ID is seen as a potential opportunity for voter fraud to occur.</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>43</v>
+3. Without a photo ID, it is unclear how one can stop voter fraud.
+4. Additionally, the text suggests that not having a voter ID in the first place is a problem.</t>
+        </is>
       </c>
     </row>
     <row r="45" ht="12.5" customHeight="1">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="C45" s="6" t="inlineStr">
         <is>
           <t>"24:50"</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="D45" s="6" t="inlineStr">
         <is>
           <t>And this, once again, we get wrapped up into the implementation phase of it, but almost every Other Nation requires photo ID, Mexico, Canada, they do require photo ID to vote. And so, just like, we have voter registration drives, you can have Mobile DMV services, things like that. That will come in give you a free government issued ID to vote.</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>44</v>
-      </c>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F45" s="6" t="n"/>
     </row>
     <row r="46" ht="12.5" customHeight="1">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="n">
         <v>48595</v>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="C46" s="6" t="inlineStr">
         <is>
           <t>"25:49"</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="D46" s="6" t="inlineStr">
         <is>
           <t>I would say maybe someone who had won so many the repeat offenders. No.</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>45</v>
-      </c>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F46" s="6" t="n"/>
     </row>
     <row r="47" ht="12.5" customHeight="1">
-      <c r="A47" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="A47" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
         <is>
           <t>"25:56"</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="D47" s="6" t="inlineStr">
         <is>
           <t>I don't understand why people that have felonies are allowed to vote anyway. I mean it doesn't make any sense to me. If they've served their time, they paid their debts, then they should be able to vote. That should be restored immediately. I never have understood why it was such a big deal. So maybe some of you guys can explain your opinion on, why you think it shouldn't be allowed?</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F47" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The author finds it difficult to understand why people with felonies are allowed to vote.
 2. They believe that if a person has served their time and paid their debts, they should be able to vote.
@@ -1550,60 +1613,60 @@
 4. They are seeking explanations from others as to why felons should not be allowed to vote.</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>46</v>
-      </c>
     </row>
     <row r="48" ht="12.5" customHeight="1">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="n">
         <v>9944</v>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="C48" s="6" t="inlineStr">
         <is>
           <t>"26:26"</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="D48" s="6" t="inlineStr">
         <is>
           <t>I agree with Janice, I think once I released, I've paid it. I don't think I should continue to have to hunt them, except for, in certain specific situations. And I think they should also get a choice in who leads our country.</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F48" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker agrees with Janice about not having to hunt or pursue something after it has been released and paid for.
 2. The speaker believes this applies to certain situations.
 3. The speaker thinks that the entity being discussed should also have a choice in who leads their country.</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="49" ht="12.5" customHeight="1">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="n">
         <v>48675</v>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="C49" s="6" t="inlineStr">
         <is>
           <t>"26:39"</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="D49" s="6" t="inlineStr">
         <is>
           <t>I'm just wondering what do we do about the people who are on probation or parole? Is that part of being released from prison? Or are they still considered?</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F49" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses people who have been released from prison.
 2. It raises a question about the status of individuals who are on probation or parole.
@@ -1611,237 +1674,247 @@
 4. The text implies that there may be some uncertainty or confusion about whether people on probation or parole are still considered to be "released from prison."</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>48</v>
-      </c>
     </row>
     <row r="50" ht="12.5" customHeight="1">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="n">
         <v>48675</v>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="C50" s="6" t="inlineStr">
         <is>
           <t>"26:39"</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="D50" s="6" t="inlineStr">
         <is>
           <t>Should they be considered?</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>49</v>
-      </c>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F50" s="6" t="n"/>
     </row>
     <row r="51" ht="12.5" customHeight="1">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="C51" s="6" t="inlineStr">
         <is>
           <t>"27:01"</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>50</v>
-      </c>
+      <c r="D51" s="6" t="n"/>
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F51" s="6" t="n"/>
     </row>
     <row r="52" ht="12.5" customHeight="1">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="C52" s="6" t="inlineStr">
         <is>
           <t>"27:01"</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="D52" s="6" t="inlineStr">
         <is>
           <t>I do think they should be considered, because this is part of their reintegration process there. Now, Bree integrating into society, they're not in other anymore. They served their time, but it could be one of those things that three-strikes-you're-out sorry, because I can see that if you have a repeat offender, someone's doing it multiple times, but</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>51</v>
-      </c>
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F52" s="6" t="n"/>
     </row>
     <row r="53" ht="12.5" customHeight="1">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="C53" s="6" t="inlineStr">
         <is>
           <t>"27:01"</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="D53" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> once you're out of prison, you're no longer incarcerated. You are a member of society. Again, you are re-entering,</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>52</v>
-      </c>
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F53" s="6" t="n"/>
     </row>
     <row r="54" ht="12.5" customHeight="1">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="n">
         <v>48631</v>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="C54" s="6" t="inlineStr">
         <is>
           <t>"27:40"</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>53</v>
-      </c>
+      <c r="D54" s="6" t="n"/>
+      <c r="E54" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F54" s="6" t="n"/>
     </row>
     <row r="55" ht="12.5" customHeight="1">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="n">
         <v>48631</v>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="C55" s="6" t="inlineStr">
         <is>
           <t>"27:40"</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="D55" s="6" t="inlineStr">
         <is>
           <t>I feel like that if you served your time, then you should have the right to vote. I know people that have served their time and have stayed out of prison and have no problems with jobs and everything, and they still can't vote because they did something wrong a long time ago.</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F55" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The author believes that individuals who have served their time in prison should have the right to vote.
 2. The author knows people who have served their time, stayed out of prison, and have no problems with jobs, but they still can't vote due to past mistakes.</t>
         </is>
       </c>
-      <c r="F55" t="n">
-        <v>54</v>
-      </c>
     </row>
     <row r="56" ht="12.5" customHeight="1">
-      <c r="A56" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="A56" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C56" s="6" t="inlineStr">
         <is>
           <t>"28:08"</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>55</v>
-      </c>
+      <c r="D56" s="6" t="n"/>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F56" s="6" t="n"/>
     </row>
     <row r="57" ht="12.5" customHeight="1">
-      <c r="A57" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="A57" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
         <is>
           <t>"28:08"</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="D57" s="6" t="inlineStr">
         <is>
           <t>I agree. I know several people that did things when they were young and foolish and now they're my age and they have to go by to get their record expunged, which is a Serie, you know, expensive or they can't vote. And some of them I know that there's different levels of felonies, you know, class ABCD murder, you know, were whatever, treat DWI felonies.</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F57" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker agrees that people who did things when they were young and foolish may have to pay to get their records expunged when they are older.
 2. The speaker knows several people who have had to go through this process.
 3. Expunging a record can be expensive.
 4. People who have criminal records may not be able to vote.
-5. The speaker is aware that there are different levels of felonies, such as class ABCD murder and DWI felonies.</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>56</v>
+5. The speaker knows that there are different levels of felonies, such as Class ABCD murder and DWI felonies.</t>
+        </is>
       </c>
     </row>
     <row r="58" ht="12.5" customHeight="1">
-      <c r="A58" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="A58" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C58" s="6" t="inlineStr">
         <is>
           <t>"28:08"</t>
         </is>
       </c>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="D58" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> So there there's a different range there, so I don't really know where you would make the cut off, but I still feel that if they're allowed back out Society, they ought to be able to vote.</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>57</v>
-      </c>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F58" s="6" t="n"/>
     </row>
     <row r="59" ht="12.5" customHeight="1">
-      <c r="A59" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="A59" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
         <is>
           <t>"30:12"</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="D59" s="6" t="inlineStr">
         <is>
           <t>Well, I personally think that ought to be able to vote with nobody intimidating me on how I vote. I don't think that around here. They have to stay so far away from the thing but I still kind of feel intimidated when you're walking through the parking lot and everybody's mobbing you trying to give you a card when you're going into boat, I think they'll have to stay like a thousand feet away from the polling.</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F59" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person believes that they should be able to vote without intimidation.
 2. They mention that currently, there are restrictions on how close people can be to the polling place.
@@ -1849,94 +1922,98 @@
 4. They suggest that people should have to stay a thousand feet away from the polling place to avoid intimidation.</t>
         </is>
       </c>
-      <c r="F59" t="n">
-        <v>58</v>
-      </c>
     </row>
     <row r="60" ht="12.5" customHeight="1">
-      <c r="A60" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="A60" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C60" s="6" t="inlineStr">
         <is>
           <t>"30:12"</t>
         </is>
       </c>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="D60" s="6" t="inlineStr">
         <is>
           <t>Place because they don't have to do that here in Missouri.</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>59</v>
-      </c>
+      <c r="E60" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F60" s="6" t="n"/>
     </row>
     <row r="61" ht="12.5" customHeight="1">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="n">
         <v>9944</v>
       </c>
-      <c r="B61" s="4" t="inlineStr">
+      <c r="C61" s="6" t="inlineStr">
         <is>
           <t>"30:47"</t>
         </is>
       </c>
-      <c r="C61" s="4" t="inlineStr">
+      <c r="D61" s="6" t="inlineStr">
         <is>
           <t>I'm just curious if anybody else has had the same experience as chance. Have you guys ran into people trying to intimidate you or hand out cards related to those things?</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>60</v>
-      </c>
+      <c r="E61" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F61" s="6" t="n"/>
     </row>
     <row r="62" ht="12.5" customHeight="1">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B62" s="4" t="inlineStr">
+      <c r="C62" s="6" t="inlineStr">
         <is>
           <t>"30:57"</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>61</v>
-      </c>
+      <c r="D62" s="6" t="n"/>
+      <c r="E62" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F62" s="6" t="n"/>
     </row>
     <row r="63" ht="12.5" customHeight="1">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B63" s="4" t="inlineStr">
+      <c r="C63" s="6" t="inlineStr">
         <is>
           <t>"30:57"</t>
         </is>
       </c>
-      <c r="C63" s="4" t="inlineStr">
+      <c r="D63" s="6" t="inlineStr">
         <is>
           <t>I think the demographic in this is not going to be able to appropriately. Answer that question as a military member, I have heard stories from fellow service members, where they were intimidated, or they were lined up out in front of the polling places, things like that. So they're in a vibrant democracy. There is no need for anyone to be near the polling station. Just the workers.</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F63" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses the issue of inappropriate demographic influencing a certain question.
 2. The author recommends addressing this issue from a military member's perspective.
@@ -1944,122 +2021,126 @@
 4. The author emphasizes that in a vibrant democracy, there is no need for anyone to be near polling stations except workers.</t>
         </is>
       </c>
-      <c r="F63" t="n">
-        <v>62</v>
-      </c>
     </row>
     <row r="64" ht="12.5" customHeight="1">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="C64" s="6" t="inlineStr">
         <is>
           <t>"30:57"</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr">
+      <c r="D64" s="6" t="inlineStr">
         <is>
           <t>That is what it is. That is your job to vote.</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>63</v>
-      </c>
+      <c r="E64" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F64" s="6" t="n"/>
     </row>
     <row r="65" ht="12.5" customHeight="1">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="n">
         <v>48595</v>
       </c>
-      <c r="B65" s="4" t="inlineStr">
+      <c r="C65" s="6" t="inlineStr">
         <is>
           <t>"31:30"</t>
         </is>
       </c>
-      <c r="C65" s="4" t="inlineStr">
+      <c r="D65" s="6" t="inlineStr">
         <is>
           <t>I've never actually seen us. Most of the time, they can have fine outside of the voting place. But as far as people or being intimidated, never occurred, never seen any</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>64</v>
-      </c>
+      <c r="E65" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F65" s="6" t="n"/>
     </row>
     <row r="66" ht="12.5" customHeight="1">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="n">
         <v>48631</v>
       </c>
-      <c r="B66" s="4" t="inlineStr">
+      <c r="C66" s="6" t="inlineStr">
         <is>
           <t>"31:43"</t>
         </is>
       </c>
-      <c r="C66" s="4" t="inlineStr">
+      <c r="D66" s="6" t="inlineStr">
         <is>
           <t>Oh, I've been felt like I was walking a gauntlet before in both Tennessee and Virginia. Where I lived before, I moved to Tennessee, where everybody was handing? You a piece of paper. So I just politely took every piece of paper didn't speak to anyone. And when I got to the door, there was a big trash can and I dropped it in so that they could see what I did with it.</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>65</v>
-      </c>
+      <c r="E66" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F66" s="6" t="n"/>
     </row>
     <row r="67" ht="12.5" customHeight="1">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="n">
         <v>48631</v>
       </c>
-      <c r="B67" s="4" t="inlineStr">
+      <c r="C67" s="6" t="inlineStr">
         <is>
           <t>"31:43"</t>
         </is>
       </c>
-      <c r="C67" s="4" t="inlineStr">
+      <c r="D67" s="6" t="inlineStr">
         <is>
           <t>But that was intimidation. It Melmac made me feel funny.</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>66</v>
-      </c>
+      <c r="E67" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F67" s="6" t="n"/>
     </row>
     <row r="68" ht="12.5" customHeight="1">
-      <c r="A68" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B68" s="4" t="inlineStr">
+      <c r="A68" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C68" s="6" t="inlineStr">
         <is>
           <t>"32:18"</t>
         </is>
       </c>
-      <c r="C68" s="4" t="inlineStr">
+      <c r="D68" s="6" t="inlineStr">
         <is>
           <t>I agree with that 100% bad how it is here. I think it's 25 feet away from the entrance to our boating building that they have to be 25 feet away from there. So and to me that's not right, because like she said, we shouldn't have to run a gauntlet through there because I do feel like people are intimidating, you or trying to get you to sway your boat at the last minute and I do my deal due.</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
+      <c r="E68" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F68" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker strongly disagrees with the current situation.
 2. The location in question is 25 feet away from the entrance to their boating building.
@@ -2069,101 +2150,105 @@
 6. The speaker is concerned about the safety and fairness of the current situation.</t>
         </is>
       </c>
-      <c r="F68" t="n">
-        <v>67</v>
-      </c>
     </row>
     <row r="69" ht="12.5" customHeight="1">
-      <c r="A69" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B69" s="4" t="inlineStr">
+      <c r="A69" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C69" s="6" t="inlineStr">
         <is>
           <t>"32:18"</t>
         </is>
       </c>
-      <c r="C69" s="4" t="inlineStr">
+      <c r="D69" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Since I know who I want to vote for, so I don't really like that.</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>68</v>
-      </c>
+      <c r="E69" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F69" s="6" t="n"/>
     </row>
     <row r="70" ht="12.5" customHeight="1">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B70" s="4" t="inlineStr">
+      <c r="C70" s="6" t="inlineStr">
         <is>
           <t>"32:53"</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>69</v>
-      </c>
+      <c r="D70" s="6" t="n"/>
+      <c r="E70" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F70" s="6" t="n"/>
     </row>
     <row r="71" ht="12.5" customHeight="1">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B71" s="4" t="inlineStr">
+      <c r="C71" s="6" t="inlineStr">
         <is>
           <t>"32:53"</t>
         </is>
       </c>
-      <c r="C71" s="4" t="inlineStr">
+      <c r="D71" s="6" t="inlineStr">
         <is>
           <t>Switching gears talking about create establishing penalties, it's already out there. They just convicted somebody for posting a meme of saying vote from home is what it says and he posted on Twitter and they convicted him of voter suppression because of that. So I feel if we give the government any more power, they're just going to abuse it.</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. A person has been convicted for posting a meme or saying something on Twitter about voting from home.
-2. The conviction was for voter suppression.
-3. The argument is that this shows the government will abuse any additional power given to it.</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>70</v>
+      <c r="E71" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F71" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. A person has been convicted for posting a meme related to voting from home.
+2. The meme was posted on Twitter.
+3. The conviction was for voter suppression.
+4. The concern is that giving the government more power will lead to its abuse.</t>
+        </is>
       </c>
     </row>
     <row r="72" ht="12.5" customHeight="1">
-      <c r="A72" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B72" s="4" t="inlineStr">
+      <c r="A72" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C72" s="6" t="inlineStr">
         <is>
           <t>"34:57"</t>
         </is>
       </c>
-      <c r="C72" s="4" t="inlineStr">
+      <c r="D72" s="6" t="inlineStr">
         <is>
           <t>Yeah, I think that the federal government should take for it. I really don't know that if we let private companies and individuals, how that would affect it, I think the Congress needs to fund it and I need think that it needs to be a voted. Somebody that's voted in to be representative of the elections to be responsible for the counting and all that kind of stuff.</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
+      <c r="E72" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F72" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The federal government should take responsibility for election administration.
 2. It is unclear how allowing private companies and individuals to participate would impact the election process.
@@ -2172,53 +2257,54 @@
 5. The counting and other election-related tasks should be handled by representatives voted into office.</t>
         </is>
       </c>
-      <c r="F72" t="n">
-        <v>71</v>
-      </c>
     </row>
     <row r="73" ht="12.5" customHeight="1">
-      <c r="A73" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B73" s="4" t="inlineStr">
+      <c r="A73" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
         <is>
           <t>"34:57"</t>
         </is>
       </c>
-      <c r="C73" s="4" t="inlineStr">
+      <c r="D73" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Because that way, the people that chose that person, on their honesty on who they think should be doing.</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>72</v>
-      </c>
+      <c r="E73" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F73" s="6" t="n"/>
     </row>
     <row r="74" ht="12.5" customHeight="1">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6" t="n">
         <v>48595</v>
       </c>
-      <c r="B74" s="4" t="inlineStr">
+      <c r="C74" s="6" t="inlineStr">
         <is>
           <t>"35:48"</t>
         </is>
       </c>
-      <c r="C74" s="4" t="inlineStr">
+      <c r="D74" s="6" t="inlineStr">
         <is>
           <t>I agree with all the proposals, especially with the nonpartisan person being in charge of the voting and, and the also definitely the auditing because as an accountant, what do you normally have to do? You have to go in audit and make sure all everything is correct? So I think they definitely need to do some auditing and make sure that hey did you place this boat? Was it you</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
+      <c r="E74" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F74" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Agreement with all proposals.
 2. Support for a nonpartisan person in charge of voting.
@@ -2227,117 +2313,122 @@
 5. Suggestion to verify identity of person who placed the boat in the voting system.</t>
         </is>
       </c>
-      <c r="F74" t="n">
-        <v>73</v>
-      </c>
     </row>
     <row r="75" ht="12.5" customHeight="1">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B75" s="4" t="inlineStr">
+      <c r="C75" s="6" t="inlineStr">
         <is>
           <t>"36:22"</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>74</v>
-      </c>
+      <c r="D75" s="6" t="n"/>
+      <c r="E75" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F75" s="6" t="n"/>
     </row>
     <row r="76" ht="12.5" customHeight="1">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B76" s="4" t="inlineStr">
+      <c r="C76" s="6" t="inlineStr">
         <is>
           <t>"36:22"</t>
         </is>
       </c>
-      <c r="C76" s="4" t="inlineStr">
+      <c r="D76" s="6" t="inlineStr">
         <is>
           <t>Melanie thing with the federal funding is the state, still haven't utilized the funds that have already been allocated to them. So and that that I don't know why.</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>75</v>
-      </c>
+      <c r="E76" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F76" s="6" t="n"/>
     </row>
     <row r="77" ht="12.5" customHeight="1">
-      <c r="A77" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B77" s="4" t="inlineStr">
+      <c r="A77" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
         <is>
           <t>"41:01"</t>
         </is>
       </c>
-      <c r="C77" s="4" t="inlineStr">
+      <c r="D77" s="6" t="inlineStr">
         <is>
           <t>Okay, that was my question. I was just curious on how many states have it, use their funding and then maybe even why have they not? Because usually you can always upgrade and improve something anything.</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>76</v>
-      </c>
+      <c r="E77" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F77" s="6" t="n"/>
     </row>
     <row r="78" ht="12.5" customHeight="1">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B78" s="4" t="inlineStr">
+      <c r="C78" s="6" t="inlineStr">
         <is>
           <t>"41:30"</t>
         </is>
       </c>
-      <c r="C78" s="4" t="inlineStr">
+      <c r="D78" s="6" t="inlineStr">
         <is>
           <t>That came out of the material that they had. So I'm trying to look up and get more details for you.</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>77</v>
-      </c>
+      <c r="E78" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F78" s="6" t="n"/>
     </row>
     <row r="79" ht="12.5" customHeight="1">
-      <c r="A79" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B79" s="4" t="inlineStr">
+      <c r="A79" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
         <is>
           <t>"41:54"</t>
         </is>
       </c>
-      <c r="C79" s="4" t="inlineStr">
+      <c r="D79" s="6" t="inlineStr">
         <is>
           <t>Well, you know, my opinion I think they should have to prove who they are. So I agree with that and I'd like to know why. Anyway it would have reasoning to not show an ID.</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F79" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker thinks that people should be required to prove their identity.
 2. The speaker agrees with this opinion.
@@ -2345,199 +2436,205 @@
 4. The speaker believes that there should be logical reasoning behind not showing an ID.</t>
         </is>
       </c>
-      <c r="F79" t="n">
-        <v>78</v>
-      </c>
     </row>
     <row r="80" ht="12.5" customHeight="1">
-      <c r="A80" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B80" s="4" t="inlineStr">
+      <c r="A80" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C80" s="6" t="inlineStr">
         <is>
           <t>"42:46"</t>
         </is>
       </c>
-      <c r="C80" s="4" t="inlineStr">
+      <c r="D80" s="6" t="inlineStr">
         <is>
           <t>I would like to have that question answered myself because like I told you before, I've never understood why they thought that it was okay to take your rights away for the rest of your life because you made one mistake and got a felony. Because sometimes, even if you get a felony, you don't even serve prison time, you can serve probation, you know? And and do away with</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F80" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker wants to understand why a felony conviction results in loss of rights for a lifetime.
-2. They argue that this punishment is unjust, as some people with felonies don't serve prison time and may only receive probation.
-3. The speaker believes that a single mistake should not lead to lifetime loss of rights.</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>79</v>
+2. They argue that a single mistake should not lead to lifetime punishment.
+3. The speaker points out that sometimes, a felony does not result in prison time and can be punished with probation.</t>
+        </is>
       </c>
     </row>
     <row r="81" ht="12.5" customHeight="1">
-      <c r="A81" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B81" s="4" t="inlineStr">
+      <c r="A81" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
         <is>
           <t>"42:46"</t>
         </is>
       </c>
-      <c r="C81" s="4" t="inlineStr">
+      <c r="D81" s="6" t="inlineStr">
         <is>
           <t>going to prison and just didn't make any sense to me. Why could people couldn't</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>80</v>
-      </c>
+      <c r="E81" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F81" s="6" t="n"/>
     </row>
     <row r="82" ht="12.5" customHeight="1">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B82" s="4" t="inlineStr">
+      <c r="C82" s="6" t="inlineStr">
         <is>
           <t>"43:22"</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>81</v>
-      </c>
+      <c r="D82" s="6" t="n"/>
+      <c r="E82" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F82" s="6" t="n"/>
     </row>
     <row r="83" ht="12.5" customHeight="1">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B83" s="4" t="inlineStr">
+      <c r="C83" s="6" t="inlineStr">
         <is>
           <t>"43:22"</t>
         </is>
       </c>
-      <c r="C83" s="4" t="inlineStr">
+      <c r="D83" s="6" t="inlineStr">
         <is>
           <t>Yeeeaaahhh official justification is they have proved that they are no longer a productive member of society by convicting committing a felony. The real reason was voter suppression</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>82</v>
-      </c>
+      <c r="E83" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F83" s="6" t="n"/>
     </row>
     <row r="84" ht="12.5" customHeight="1">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B84" s="4" t="inlineStr">
+      <c r="C84" s="6" t="inlineStr">
         <is>
           <t>"43:22"</t>
         </is>
       </c>
-      <c r="C84" s="4" t="inlineStr">
+      <c r="D84" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> because if you cut out a huge chunk of the population that can't vote anymore, it's easier to recruit the votes you need.</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
+      <c r="E84" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F84" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Some people may want to make it difficult or impossible for certain groups to vote.
 2. The reason for this is that it would be easier to recruit the votes needed if a large portion of the population who can't vote is excluded.</t>
         </is>
       </c>
-      <c r="F84" t="n">
-        <v>83</v>
-      </c>
     </row>
     <row r="85" ht="12.5" customHeight="1">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6" t="n">
         <v>48675</v>
       </c>
-      <c r="B85" s="4" t="inlineStr">
+      <c r="C85" s="6" t="inlineStr">
         <is>
           <t>"43:58"</t>
         </is>
       </c>
-      <c r="C85" s="4" t="inlineStr">
+      <c r="D85" s="6" t="inlineStr">
         <is>
           <t>this question is really way too broad for this conversation and you guys can ignore it, but I</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>84</v>
-      </c>
+      <c r="E85" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F85" s="6" t="n"/>
     </row>
     <row r="86" ht="12.5" customHeight="1">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B86" s="4" t="inlineStr">
+      <c r="C86" s="6" t="inlineStr">
         <is>
           <t>"44:07"</t>
         </is>
       </c>
-      <c r="C86" s="4" t="inlineStr">
+      <c r="D86" s="6" t="inlineStr">
         <is>
           <t>Now I think it's a very good question. I really like to hear the panelists to answer that one because we all see things from a very localized view. Like someone had said, what was it? Emma has only lived in. Iowa has only seen it from the Iowa perspective.</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>85</v>
-      </c>
+      <c r="E86" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F86" s="6" t="n"/>
     </row>
     <row r="87" ht="12.5" customHeight="1">
-      <c r="A87" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B87" s="4" t="inlineStr">
+      <c r="A87" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
         <is>
           <t>"44:27"</t>
         </is>
       </c>
-      <c r="C87" s="4" t="inlineStr">
+      <c r="D87" s="6" t="inlineStr">
         <is>
           <t>I agree. I thought it was a very good question because even in one state like, for instance, you all have heard of st. Louis. And I know that a fair, we had a lot of problems with the black people. Not being able to get to the polls to vote because they live too far away from the voting stations, and they get nap transportation and stuff, so that does affect it. So that's a barrier and I think that that needs to be</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
+      <c r="E87" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F87" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The existence of barriers for certain groups in accessing voting stations is acknowledged.
 2. An example is given of the city of St. Louis, where such barriers have been observed.
@@ -2546,185 +2643,189 @@
 5. It is expressed that this problem needs to be addressed.</t>
         </is>
       </c>
-      <c r="F87" t="n">
-        <v>86</v>
-      </c>
     </row>
     <row r="88" ht="12.5" customHeight="1">
-      <c r="A88" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B88" s="4" t="inlineStr">
+      <c r="A88" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C88" s="6" t="inlineStr">
         <is>
           <t>"44:27"</t>
         </is>
       </c>
-      <c r="C88" s="4" t="inlineStr">
+      <c r="D88" s="6" t="inlineStr">
         <is>
           <t>Be discussed. I like that question. I thought it was a very good question.</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>87</v>
-      </c>
+      <c r="E88" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F88" s="6" t="n"/>
     </row>
     <row r="89" ht="12.5" customHeight="1">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6" t="n">
         <v>9944</v>
       </c>
-      <c r="B89" s="4" t="inlineStr">
+      <c r="C89" s="6" t="inlineStr">
         <is>
           <t>"45:03"</t>
         </is>
       </c>
-      <c r="C89" s="4" t="inlineStr">
+      <c r="D89" s="6" t="inlineStr">
         <is>
           <t>This is something I don't think really, we touched on. I think it's an important thing to be brought up. I appreciate you asking the question or</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
+      <c r="E89" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F89" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text covers a point not previously discussed.
 2. The speaker thinks this point is important.
 3. The speaker appreciates the question being asked.</t>
         </is>
       </c>
-      <c r="F89" t="n">
-        <v>88</v>
-      </c>
     </row>
     <row r="90" ht="12.5" customHeight="1">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="6" t="n">
         <v>48631</v>
       </c>
-      <c r="B90" s="4" t="inlineStr">
+      <c r="C90" s="6" t="inlineStr">
         <is>
           <t>"45:11"</t>
         </is>
       </c>
-      <c r="C90" s="4" t="inlineStr">
+      <c r="D90" s="6" t="inlineStr">
         <is>
           <t>I think it would also be a good question to hear more on.</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>89</v>
-      </c>
+      <c r="E90" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F90" s="6" t="n"/>
     </row>
     <row r="91" ht="12.5" customHeight="1">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6" t="n">
         <v>48634</v>
       </c>
-      <c r="B91" s="4" t="inlineStr">
+      <c r="C91" s="6" t="inlineStr">
         <is>
           <t>"45:48"</t>
         </is>
       </c>
-      <c r="C91" s="4" t="inlineStr">
+      <c r="D91" s="6" t="inlineStr">
         <is>
           <t>This is more just to ask, like, why do they need it when they're already using the existing laws?</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>90</v>
-      </c>
+      <c r="E91" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F91" s="6" t="n"/>
     </row>
     <row r="92" ht="12.5" customHeight="1">
-      <c r="A92" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B92" s="4" t="inlineStr">
+      <c r="A92" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C92" s="6" t="inlineStr">
         <is>
           <t>"46:03"</t>
         </is>
       </c>
-      <c r="C92" s="4" t="inlineStr">
+      <c r="D92" s="6" t="inlineStr">
         <is>
           <t>I hadn't heard about him being convicted, but I don't always listen to the news, but you're right. I'm glad that they finally did that to somebody because I think it probably goes on a lot more than we know, even though we are firstly done that. But I do know that I have friends on Facebook to get really irate and unfriend you and stuff because you have different practices and to me, that's kind of voter intimidation or suppression.</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
+      <c r="E92" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F92" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker had not heard about a certain person being convicted.
 2. The speaker admits to not always keeping up with the news.
 3. The speaker thinks that the conviction is a good thing, as it might be common practice that goes unnoticed.
 4. The speaker acknowledges that they are not fully informed about the situation.
 5. The speaker has friends on Facebook who get angry and unfriend others with different practices.
-6. The speaker considers this behavior to be a form of voter intimidation or suppression.</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>91</v>
+6. The speaker considers this behavior as a form of voter intimidation or suppression.</t>
+        </is>
       </c>
     </row>
     <row r="93" ht="12.5" customHeight="1">
-      <c r="A93" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B93" s="4" t="inlineStr">
+      <c r="A93" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C93" s="6" t="inlineStr">
         <is>
           <t>"46:03"</t>
         </is>
       </c>
-      <c r="C93" s="4" t="inlineStr">
+      <c r="D93" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> In itself. You know, I'm not going to be your friend anymore. Blah blah blah. Feels like a back in grade school.</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>92</v>
-      </c>
+      <c r="E93" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F93" s="6" t="n"/>
     </row>
     <row r="94" ht="12.5" customHeight="1">
-      <c r="A94" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B94" s="4" t="inlineStr">
+      <c r="A94" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C94" s="6" t="inlineStr">
         <is>
           <t>"46:56"</t>
         </is>
       </c>
-      <c r="C94" s="4" t="inlineStr">
+      <c r="D94" s="6" t="inlineStr">
         <is>
           <t>Well, that's a hard one because what if they did like food stamp fraud, that's kind of like against the government. So it just kind of depends now. Yeah, babe went out there and tried to assassinate the president. I could see, maybe they're not getting their voters rights ever back, but there's so many different levels of crimes. That's a hard one to answer but it's a very good question.</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F94" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person being discussed may have committed food stamp fraud, which is a crime against the government.
 2. Another possible crime is an attempt to assassinate the president.
@@ -2732,149 +2833,30 @@
 4. The text mentions "so many different levels of crimes," indicating that there are many other potential crimes that could have been committed.</t>
         </is>
       </c>
-      <c r="F94" t="n">
-        <v>93</v>
-      </c>
     </row>
     <row r="95" ht="12.5" customHeight="1">
-      <c r="A95" s="2" t="n">
-        <v>9811</v>
-      </c>
-      <c r="B95" s="4" t="inlineStr">
+      <c r="A95" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="6" t="n">
+        <v>9811</v>
+      </c>
+      <c r="C95" s="6" t="inlineStr">
         <is>
           <t>"47:36"</t>
         </is>
       </c>
-      <c r="C95" s="4" t="inlineStr">
+      <c r="D95" s="6" t="inlineStr">
         <is>
           <t>I just think you need to re spell felons. It's not Fallon's. It's felons. I think you need to respect all that. You've got it spelled wrong but otherwise I think that's a good question and</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>proposal</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="14.5" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="14.5" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Change the primary system</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="14.5" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Use proportional representatives to elect elected officials</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="14.5" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Change the current electoral college</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="14.5" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Implement more accessibility to voting</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="14.5" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="14.5" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Implement voting standards that are less strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="14.5" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Implement more measures to address voter fraud</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="14.5" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Implement more fairness and transparency in the election process</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="14.5" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Implement limits on financing individual candidates and parties</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="14.5" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Increase in public funding and financing for campaigns</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="14.5" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Implement a term limit for Supreme Court Justices</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="14.5" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Increase opportunities for learning about civic education in schools</t>
-        </is>
-      </c>
+      <c r="E95" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F95" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
